--- a/MQO Regressão Linear Múltipla.xlsx
+++ b/MQO Regressão Linear Múltipla.xlsx
@@ -2702,7 +2702,7 @@
   <dimension ref="B2:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2961,7 +2961,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>7</v>
       </c>
@@ -3010,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3422,6 +3422,10 @@
         <f>AVERAGE(B14:B28)-C68*AVERAGE(D14:D28)-C69*AVERAGE(E14:E28)</f>
         <v>562.15100922848853</v>
       </c>
+      <c r="I67" t="e">
+        <f>INTERCEPT(B14:B28,D14:E28)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C68">

--- a/MQO Regressão Linear Múltipla.xlsx
+++ b/MQO Regressão Linear Múltipla.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dados óleo calefação" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Consumo Mensal de Óleo para Calefação</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Modelo regredido:</t>
+  </si>
+  <si>
+    <t>Assim, para uma o consumo de óleo previsto numa casa com 6 polegadas de isolamento térmico durante um mês de inverno em que a temperatura atmosférica tenha atingido um valor médio de 30°F</t>
   </si>
 </sst>
 </file>
@@ -2504,9 +2507,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="24" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3008,10 +3011,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I74"/>
+  <dimension ref="B2:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3455,8 +3458,19 @@
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" t="str">
-        <f>"Óleo para calefação previsto = "&amp;TEXT(C67,"0,00")&amp;" "&amp;TEXT(C68,"0,00")&amp;"Temperatura "&amp;TEXT(C69,"0,00")&amp;"Isolamento Térmico"</f>
-        <v>Óleo para calefação previsto = 562,15 -5,44Temperatura -20,01Isolamento Térmico</v>
+        <f>"Óleo para calefação previsto = "&amp;TEXT(C67,"0,0000")&amp;" "&amp;TEXT(C68,"0,0000")&amp;"Temperatura "&amp;TEXT(C69,"0,0000")&amp;"Isolamento Térmico"</f>
+        <v>Óleo para calefação previsto = 562,1510 -5,4366Temperatura -20,0123Isolamento Térmico</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B78" t="str">
+        <f>TEXT(C67+C68*30+C69*6,"0,000")&amp; " em média de galões de óleo para calefação para este caso."</f>
+        <v>278,980 em média de galões de óleo para calefação para este caso.</v>
       </c>
     </row>
   </sheetData>

--- a/MQO Regressão Linear Múltipla.xlsx
+++ b/MQO Regressão Linear Múltipla.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Desktop\Curso Econometria no Excel\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610AF14E-4349-4D34-A918-60FA074ECB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7310" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados óleo calefação" sheetId="1" r:id="rId1"/>
     <sheet name="MQO" sheetId="3" r:id="rId2"/>
-    <sheet name="MQO (resolvido)" sheetId="2" r:id="rId3"/>
+    <sheet name="MQO (resolvido)" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -108,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +239,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -282,7 +300,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Retângulo 2"/>
+        <xdr:cNvPr id="3" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -342,7 +366,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Retângulo 3"/>
+        <xdr:cNvPr id="4" name="Retângulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -402,7 +432,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4"/>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -457,7 +493,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5"/>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -512,7 +554,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Colchete esquerdo 6"/>
+        <xdr:cNvPr id="7" name="Colchete esquerdo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -564,7 +612,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Colchete direito 7"/>
+        <xdr:cNvPr id="8" name="Colchete direito 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -616,7 +670,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Colchete esquerdo 8"/>
+        <xdr:cNvPr id="9" name="Colchete esquerdo 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -668,7 +728,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Colchete direito 9"/>
+        <xdr:cNvPr id="10" name="Colchete direito 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -720,7 +786,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Colchete esquerdo 10"/>
+        <xdr:cNvPr id="11" name="Colchete esquerdo 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -772,7 +844,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Colchete direito 11"/>
+        <xdr:cNvPr id="12" name="Colchete direito 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -824,7 +902,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagem 12"/>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -879,7 +963,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Colchete esquerdo 13"/>
+        <xdr:cNvPr id="14" name="Colchete esquerdo 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -931,7 +1021,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Colchete direito 14"/>
+        <xdr:cNvPr id="15" name="Colchete direito 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -983,7 +1079,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagem 15"/>
+        <xdr:cNvPr id="16" name="Imagem 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1038,7 +1140,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Conector de seta reta 16"/>
+        <xdr:cNvPr id="17" name="Conector de seta reta 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="16" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -1087,7 +1195,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Conector de seta reta 17"/>
+        <xdr:cNvPr id="18" name="Conector de seta reta 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -1136,7 +1250,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Conector de seta reta 18"/>
+        <xdr:cNvPr id="19" name="Conector de seta reta 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1183,7 +1303,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Imagem 19"/>
+        <xdr:cNvPr id="20" name="Imagem 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1243,7 +1369,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1298,7 +1430,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Retângulo 2"/>
+        <xdr:cNvPr id="3" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1358,7 +1496,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Retângulo 3"/>
+        <xdr:cNvPr id="4" name="Retângulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1418,7 +1562,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4"/>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1473,7 +1623,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5"/>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1528,7 +1684,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Colchete esquerdo 6"/>
+        <xdr:cNvPr id="7" name="Colchete esquerdo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1580,7 +1742,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Colchete direito 7"/>
+        <xdr:cNvPr id="8" name="Colchete direito 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1632,7 +1800,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Colchete esquerdo 9"/>
+        <xdr:cNvPr id="10" name="Colchete esquerdo 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1684,7 +1858,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Colchete direito 10"/>
+        <xdr:cNvPr id="11" name="Colchete direito 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1736,7 +1916,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Colchete esquerdo 11"/>
+        <xdr:cNvPr id="12" name="Colchete esquerdo 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1788,7 +1974,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Colchete direito 12"/>
+        <xdr:cNvPr id="13" name="Colchete direito 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1840,7 +2032,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagem 13"/>
+        <xdr:cNvPr id="14" name="Imagem 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1895,7 +2093,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Colchete esquerdo 14"/>
+        <xdr:cNvPr id="15" name="Colchete esquerdo 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1947,7 +2151,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Colchete direito 15"/>
+        <xdr:cNvPr id="16" name="Colchete direito 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1999,7 +2209,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Imagem 16"/>
+        <xdr:cNvPr id="17" name="Imagem 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2054,7 +2270,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Conector de seta reta 18"/>
+        <xdr:cNvPr id="19" name="Conector de seta reta 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -2103,7 +2325,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Conector de seta reta 20"/>
+        <xdr:cNvPr id="21" name="Conector de seta reta 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="16" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -2152,7 +2380,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Conector de seta reta 21"/>
+        <xdr:cNvPr id="22" name="Conector de seta reta 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2199,7 +2433,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Imagem 22"/>
+        <xdr:cNvPr id="23" name="Imagem 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2504,12 +2744,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:D18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="24" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2701,11 +2941,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+      <selection activeCell="C58" sqref="C58:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3010,11 +3250,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
